--- a/src/test/resources/monkeypox.xlsx
+++ b/src/test/resources/monkeypox.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>CA-TLSDICW7</t>
+  </si>
+  <si>
+    <t>CA-JJLVFOJN</t>
+  </si>
+  <si>
+    <t>CA-XZML7OCI</t>
+  </si>
+  <si>
+    <t>CA-2U43TI8J</t>
+  </si>
+  <si>
+    <t>CA-VJLH9Y8M</t>
   </si>
 </sst>
 </file>
@@ -549,7 +561,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>27</v>
